--- a/pizza/Documents/Normalization.xlsx
+++ b/pizza/Documents/Normalization.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pizza\pizza\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pizza\PizzaZone\pizza\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E11D12-4416-4770-8010-87748E2FF8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11E3B79-CF8D-4791-8C7C-50B60983920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07591940-9687-4BF5-A0DE-32D4D2AC215D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{07591940-9687-4BF5-A0DE-32D4D2AC215D}"/>
   </bookViews>
   <sheets>
     <sheet name="1NF" sheetId="1" r:id="rId1"/>
     <sheet name="2NF" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
   <si>
     <t>Users</t>
   </si>
@@ -152,6 +153,21 @@
   </si>
   <si>
     <t>feedBackTime</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Topping</t>
+  </si>
+  <si>
+    <t>ToppingName</t>
+  </si>
+  <si>
+    <t>ToppingId</t>
+  </si>
+  <si>
+    <t>ToppingPrice</t>
   </si>
 </sst>
 </file>
@@ -512,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD954BF-2757-4210-8DA1-031C359AEABE}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,12 +747,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A91CDCF-809E-465E-9F3A-25DF7BD4918F}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB36609E-A460-4A46-A6FA-2DC72DCE4521}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>